--- a/new topsis1.xlsx
+++ b/new topsis1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffaf63844dbb81ea/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{C8C59348-4A9F-4F76-9D2E-BBFEDD220E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18574068-6776-474F-9C98-1ADE7A6B81E2}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{C8C59348-4A9F-4F76-9D2E-BBFEDD220E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43FB9B39-427C-4A01-947C-F438DEA49CE9}"/>
   <bookViews>
-    <workbookView xWindow="-384000" yWindow="-384000" windowWidth="2388" windowHeight="564" xr2:uid="{2DAA50AA-FBCD-4FBF-A5C1-0B9E39E6D53F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2DAA50AA-FBCD-4FBF-A5C1-0B9E39E6D53F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1242,18 +1252,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1553,14 +1551,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF49FC3-859C-4C49-9451-15B47E71AD56}">
   <dimension ref="E5:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="E88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O118" sqref="O118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="8" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="10" width="6.77734375" customWidth="1"/>
     <col min="11" max="11" width="6.109375" customWidth="1"/>
@@ -2381,7 +2380,7 @@
         <v>28224</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f>K13*K13</f>
         <v>9</v>
       </c>
     </row>
@@ -3691,20 +3690,20 @@
         <v>6.6223829540182175E-2</v>
       </c>
       <c r="H101">
-        <f t="shared" ref="H101:K101" si="9">MAX(H83:H100)</f>
+        <f t="shared" ref="H101" si="9">MAX(H83:H100)</f>
         <v>7.8119848990219662E-2</v>
       </c>
       <c r="I101">
-        <f t="shared" si="9"/>
-        <v>0.26187543144008041</v>
+        <f>MIN(I83:I100)</f>
+        <v>2.8568228884372406E-2</v>
       </c>
       <c r="J101">
-        <f t="shared" si="9"/>
-        <v>0.13564513248008414</v>
+        <f t="shared" ref="J101:K101" si="10">MIN(J83:J100)</f>
+        <v>4.1447123813359042E-2</v>
       </c>
       <c r="K101">
-        <f t="shared" si="9"/>
-        <v>4.8208943047748129E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.0348238412913543E-3</v>
       </c>
     </row>
     <row r="102" spans="6:13" x14ac:dyDescent="0.3">
@@ -3716,20 +3715,20 @@
         <v>1.430434718067935E-2</v>
       </c>
       <c r="H102">
-        <f t="shared" ref="H102:K102" si="10">MIN(H83:H100)</f>
+        <f t="shared" ref="H102" si="11">MIN(H83:H100)</f>
         <v>4.4877360058211295E-2</v>
       </c>
       <c r="I102">
-        <f t="shared" si="10"/>
-        <v>2.8568228884372406E-2</v>
+        <f>MAX(I83:I100)</f>
+        <v>0.26187543144008041</v>
       </c>
       <c r="J102">
-        <f t="shared" si="10"/>
-        <v>4.1447123813359042E-2</v>
+        <f t="shared" ref="J102:K102" si="12">MAX(J83:J100)</f>
+        <v>0.13564513248008414</v>
       </c>
       <c r="K102">
-        <f t="shared" si="10"/>
-        <v>8.0348238412913543E-3</v>
+        <f t="shared" si="12"/>
+        <v>4.8208943047748129E-2</v>
       </c>
     </row>
     <row r="105" spans="6:13" x14ac:dyDescent="0.3">
@@ -3760,27 +3759,27 @@
       </c>
       <c r="G107">
         <f>(G83-G$101)^2+(H83-H$101)^2+(I83-I$101)^2+(J83-J$101)^2+(K83-K$101)^2</f>
-        <v>1.152827122428121E-2</v>
+        <v>2.76977644878042E-2</v>
       </c>
       <c r="H107">
         <f>POWER(G107,0.5)</f>
-        <v>0.1073697872973641</v>
+        <v>0.16642645368992334</v>
       </c>
       <c r="I107">
-        <f t="shared" ref="I107:I124" si="11">(G83-G$102)^2+(H83-H$102)^2+(I83-I$102)^2+(J83-J102)^2+(K83-K$102)^2</f>
-        <v>2.8193120930871483E-2</v>
+        <f t="shared" ref="I107:I124" si="13">(G83-G$102)^2+(H83-H$102)^2+(I83-I$102)^2+(J83-J102)^2+(K83-K$102)^2</f>
+        <v>1.2023627667348493E-2</v>
       </c>
       <c r="J107">
         <f>POWER(I107,0.5)</f>
-        <v>0.16790807285795251</v>
+        <v>0.10965230352048466</v>
       </c>
       <c r="L107">
-        <f t="shared" ref="L107:L124" si="12">J107/H107+J107</f>
-        <v>1.7317378715789433</v>
+        <f>J107/(H107+J107)</f>
+        <v>0.39717761927229817</v>
       </c>
       <c r="M107">
-        <f t="shared" ref="M107:M124" si="13">_xlfn.RANK.EQ(L107,L$107:L$124)+COUNTIF(L$107:L$124,L107)-1</f>
-        <v>6</v>
+        <f>_xlfn.RANK.EQ(L107,L$107:L$124,1)+COUNTIF(L$107:L$124,L107)-1</f>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="6:13" x14ac:dyDescent="0.3">
@@ -3789,26 +3788,26 @@
       </c>
       <c r="G108">
         <f>(G84-G$101)^2+(H84-H$101)^2+(I84-I$101)^2+(J84-J$101)^2+(K84-K$101)^2</f>
-        <v>2.0815953378929261E-2</v>
+        <v>1.463888017231185E-2</v>
       </c>
       <c r="H108">
         <f t="shared" ref="H108:H124" si="14">POWER(G108,0.5)</f>
-        <v>0.14427734880752854</v>
+        <v>0.12099124006436107</v>
       </c>
       <c r="I108">
-        <f t="shared" si="11"/>
-        <v>1.8623692818619628E-2</v>
+        <f t="shared" si="13"/>
+        <v>2.0702930991525745E-2</v>
       </c>
       <c r="J108">
         <f t="shared" ref="J108:J124" si="15">POWER(I108,0.5)</f>
-        <v>0.13646865141350092</v>
+        <v>0.14388513123851868</v>
       </c>
       <c r="L108">
-        <f t="shared" si="12"/>
-        <v>1.0823458285409742</v>
+        <f t="shared" ref="L108:L124" si="16">J108/(H108+J108)</f>
+        <v>0.54321618244305181</v>
       </c>
       <c r="M108">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="M108:M124" si="17">_xlfn.RANK.EQ(L108,L$107:L$124,1)+COUNTIF(L$107:L$124,L108)-1</f>
         <v>8</v>
       </c>
     </row>
@@ -3817,27 +3816,27 @@
         <v>3</v>
       </c>
       <c r="G109">
-        <f t="shared" ref="G109:G124" si="16">(G85-G$101)^2+(H85-H$101)^2+(I85-I$101)^2+(J85-J$101)^2+(K85-K$101)^2</f>
-        <v>2.5217505989488347E-2</v>
+        <f t="shared" ref="G109:G124" si="18">(G85-G$101)^2+(H85-H$101)^2+(I85-I$101)^2+(J85-J$101)^2+(K85-K$101)^2</f>
+        <v>1.4192006369703926E-2</v>
       </c>
       <c r="H109">
         <f t="shared" si="14"/>
-        <v>0.15880020777533116</v>
+        <v>0.11913020762889623</v>
       </c>
       <c r="I109">
-        <f t="shared" si="11"/>
-        <v>1.810958405147256E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.0006276946140491E-2</v>
       </c>
       <c r="J109">
         <f t="shared" si="15"/>
-        <v>0.13457185460367468</v>
+        <v>0.17322319979188841</v>
       </c>
       <c r="L109">
-        <f t="shared" si="12"/>
-        <v>0.98200056070502639</v>
+        <f t="shared" si="16"/>
+        <v>0.59251301813140156</v>
       </c>
       <c r="M109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
     </row>
@@ -3846,28 +3845,28 @@
         <v>4</v>
       </c>
       <c r="G110">
-        <f t="shared" si="16"/>
-        <v>2.7863970613095364E-2</v>
+        <f t="shared" si="18"/>
+        <v>8.4956993055766549E-3</v>
       </c>
       <c r="H110">
         <f t="shared" si="14"/>
-        <v>0.16692504489469326</v>
+        <v>9.2172117831677572E-2</v>
       </c>
       <c r="I110">
-        <f t="shared" si="11"/>
-        <v>1.6012401660724179E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.3928684176770384E-2</v>
       </c>
       <c r="J110">
         <f t="shared" si="15"/>
-        <v>0.12654011877947713</v>
+        <v>0.18419740545613117</v>
       </c>
       <c r="L110">
-        <f t="shared" si="12"/>
-        <v>0.88460562572186874</v>
+        <f t="shared" si="16"/>
+        <v>0.66648957260135244</v>
       </c>
       <c r="M110">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" si="17"/>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="6:13" x14ac:dyDescent="0.3">
@@ -3875,28 +3874,28 @@
         <v>5</v>
       </c>
       <c r="G111">
-        <f t="shared" si="16"/>
-        <v>9.0728698301006175E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.7252197569289788E-2</v>
       </c>
       <c r="H111">
         <f t="shared" si="14"/>
-        <v>9.5251613267705953E-2</v>
+        <v>0.16508239630345142</v>
       </c>
       <c r="I111">
-        <f t="shared" si="11"/>
-        <v>3.4673772324467313E-2</v>
+        <f t="shared" si="13"/>
+        <v>1.8333630387809982E-2</v>
       </c>
       <c r="J111">
         <f t="shared" si="15"/>
-        <v>0.18620894802470506</v>
+        <v>0.13540173701917557</v>
       </c>
       <c r="L111">
-        <f t="shared" si="12"/>
-        <v>2.1411254227867889</v>
+        <f t="shared" si="16"/>
+        <v>0.45061193588480092</v>
       </c>
       <c r="M111">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="6:13" x14ac:dyDescent="0.3">
@@ -3904,27 +3903,27 @@
         <v>6</v>
       </c>
       <c r="G112">
-        <f t="shared" si="16"/>
-        <v>4.954645815689563E-2</v>
+        <f t="shared" si="18"/>
+        <v>4.550273550105702E-3</v>
       </c>
       <c r="H112">
         <f t="shared" si="14"/>
-        <v>0.22259033706990883</v>
+        <v>6.7455715473973749E-2</v>
       </c>
       <c r="I112">
-        <f t="shared" si="11"/>
-        <v>1.0827057806945366E-2</v>
+        <f t="shared" si="13"/>
+        <v>4.8247093708089189E-2</v>
       </c>
       <c r="J112">
         <f t="shared" si="15"/>
-        <v>0.1040531489525683</v>
+        <v>0.21965221079718089</v>
       </c>
       <c r="L112">
-        <f t="shared" si="12"/>
-        <v>0.57151795592614496</v>
+        <f t="shared" si="16"/>
+        <v>0.76505101635450401</v>
       </c>
       <c r="M112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
     </row>
@@ -3933,28 +3932,28 @@
         <v>7</v>
       </c>
       <c r="G113">
-        <f t="shared" si="16"/>
-        <v>2.9290494013829591E-2</v>
+        <f t="shared" si="18"/>
+        <v>8.6862710730828199E-3</v>
       </c>
       <c r="H113">
         <f t="shared" si="14"/>
-        <v>0.17114465815160457</v>
+        <v>9.3200166700939002E-2</v>
       </c>
       <c r="I113">
-        <f t="shared" si="11"/>
-        <v>1.4930626690704852E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.092028249738819E-2</v>
       </c>
       <c r="J113">
         <f t="shared" si="15"/>
-        <v>0.12219094357072807</v>
+        <v>0.17584164039665973</v>
       </c>
       <c r="L113">
-        <f t="shared" si="12"/>
-        <v>0.83615388515718436</v>
+        <f t="shared" si="16"/>
+        <v>0.65358481751823305</v>
       </c>
       <c r="M113">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f t="shared" si="17"/>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="6:13" x14ac:dyDescent="0.3">
@@ -3962,28 +3961,28 @@
         <v>8</v>
       </c>
       <c r="G114">
-        <f t="shared" si="16"/>
-        <v>7.6980680098086771E-3</v>
+        <f t="shared" si="18"/>
+        <v>3.4202642666454112E-2</v>
       </c>
       <c r="H114">
         <f t="shared" si="14"/>
-        <v>8.773863464750678E-2</v>
+        <v>0.18493956490284633</v>
       </c>
       <c r="I114">
-        <f t="shared" si="11"/>
-        <v>2.5609918672918147E-2</v>
+        <f t="shared" si="13"/>
+        <v>9.3895680705396358E-3</v>
       </c>
       <c r="J114">
         <f t="shared" si="15"/>
-        <v>0.16003099285112915</v>
+        <v>9.6899783645473817E-2</v>
       </c>
       <c r="L114">
-        <f t="shared" si="12"/>
-        <v>1.9839822486925223</v>
+        <f t="shared" si="16"/>
+        <v>0.34381211901240527</v>
       </c>
       <c r="M114">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="6:13" x14ac:dyDescent="0.3">
@@ -3991,28 +3990,28 @@
         <v>9</v>
       </c>
       <c r="G115">
-        <f t="shared" si="16"/>
-        <v>2.9124961280883134E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.0769815396282573E-2</v>
       </c>
       <c r="H115">
         <f t="shared" si="14"/>
-        <v>0.17066036821969865</v>
+        <v>0.10377772109794363</v>
       </c>
       <c r="I115">
-        <f t="shared" si="11"/>
-        <v>1.568033180079012E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.8874801272123477E-2</v>
       </c>
       <c r="J115">
         <f t="shared" si="15"/>
-        <v>0.12522113160641107</v>
+        <v>0.19716693757352796</v>
       </c>
       <c r="L115">
-        <f t="shared" si="12"/>
-        <v>0.85896577843155075</v>
+        <f t="shared" si="16"/>
+        <v>0.65516011629489224</v>
       </c>
       <c r="M115">
-        <f t="shared" si="13"/>
-        <v>13</v>
+        <f t="shared" si="17"/>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="6:13" x14ac:dyDescent="0.3">
@@ -4020,28 +4019,28 @@
         <v>10</v>
       </c>
       <c r="G116">
-        <f t="shared" si="16"/>
-        <v>4.1069256276222661E-2</v>
+        <f t="shared" si="18"/>
+        <v>5.1341683190344531E-3</v>
       </c>
       <c r="H116">
         <f t="shared" si="14"/>
-        <v>0.20265551133937282</v>
+        <v>7.1653111021325891E-2</v>
       </c>
       <c r="I116">
-        <f t="shared" si="11"/>
-        <v>2.3401928020554477E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.9924669258482537E-2</v>
       </c>
       <c r="J116">
         <f t="shared" si="15"/>
-        <v>0.15297688721030533</v>
+        <v>0.19981158439510593</v>
       </c>
       <c r="L116">
-        <f t="shared" si="12"/>
-        <v>0.90783860401861749</v>
+        <f t="shared" si="16"/>
+        <v>0.73604998281117662</v>
       </c>
       <c r="M116">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="17"/>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="6:13" x14ac:dyDescent="0.3">
@@ -4049,28 +4048,28 @@
         <v>11</v>
       </c>
       <c r="G117">
-        <f t="shared" si="16"/>
-        <v>3.0463910772871854E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.0118585942352147E-2</v>
       </c>
       <c r="H117">
         <f t="shared" si="14"/>
-        <v>0.17453913822656469</v>
+        <v>0.10059118222961766</v>
       </c>
       <c r="I117">
-        <f t="shared" si="11"/>
-        <v>1.4562943018792957E-2</v>
+        <f t="shared" si="13"/>
+        <v>5.3564653157918037E-2</v>
       </c>
       <c r="J117">
         <f t="shared" si="15"/>
-        <v>0.12067701943117819</v>
+        <v>0.23144038791429217</v>
       </c>
       <c r="L117">
-        <f t="shared" si="12"/>
-        <v>0.81208079658590715</v>
+        <f t="shared" si="16"/>
+        <v>0.6970433197481215</v>
       </c>
       <c r="M117">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" si="17"/>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="6:13" x14ac:dyDescent="0.3">
@@ -4078,27 +4077,27 @@
         <v>12</v>
       </c>
       <c r="G118">
-        <f t="shared" si="16"/>
-        <v>2.0574231869286894E-2</v>
+        <f t="shared" si="18"/>
+        <v>1.6398443322663554E-2</v>
       </c>
       <c r="H118">
         <f t="shared" si="14"/>
-        <v>0.14343720531747298</v>
+        <v>0.12805640680053285</v>
       </c>
       <c r="I118">
-        <f t="shared" si="11"/>
-        <v>1.7775014667032855E-2</v>
+        <f t="shared" si="13"/>
+        <v>2.6703210598541891E-2</v>
       </c>
       <c r="J118">
         <f t="shared" si="15"/>
-        <v>0.13332297126539316</v>
+        <v>0.16341117036035785</v>
       </c>
       <c r="L118">
-        <f t="shared" si="12"/>
-        <v>1.0628096478240048</v>
+        <f t="shared" si="16"/>
+        <v>0.56064956504631924</v>
       </c>
       <c r="M118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
     </row>
@@ -4107,27 +4106,27 @@
         <v>13</v>
       </c>
       <c r="G119">
-        <f t="shared" si="16"/>
-        <v>4.9868322857393515E-3</v>
+        <f t="shared" si="18"/>
+        <v>5.7062995591564511E-2</v>
       </c>
       <c r="H119">
         <f t="shared" si="14"/>
-        <v>7.0617506935174018E-2</v>
+        <v>0.23887862104333346</v>
       </c>
       <c r="I119">
-        <f t="shared" si="11"/>
-        <v>6.1274825022009524E-2</v>
+        <f t="shared" si="13"/>
+        <v>2.918860203079833E-3</v>
       </c>
       <c r="J119">
         <f t="shared" si="15"/>
-        <v>0.24753752245267691</v>
+        <v>5.4026476870880941E-2</v>
       </c>
       <c r="L119">
-        <f t="shared" si="12"/>
-        <v>3.7528654955842295</v>
+        <f t="shared" si="16"/>
+        <v>0.18445044915778194</v>
       </c>
       <c r="M119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -4136,27 +4135,27 @@
         <v>14</v>
       </c>
       <c r="G120">
-        <f t="shared" si="16"/>
-        <v>1.4357752120990453E-2</v>
+        <f t="shared" si="18"/>
+        <v>2.5788740291633073E-2</v>
       </c>
       <c r="H120">
         <f t="shared" si="14"/>
-        <v>0.11982383786622115</v>
+        <v>0.16058873027592277</v>
       </c>
       <c r="I120">
-        <f t="shared" si="11"/>
-        <v>3.3014541537817792E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.035246495298493E-2</v>
       </c>
       <c r="J120">
         <f t="shared" si="15"/>
-        <v>0.18169904110318741</v>
+        <v>0.17421958831596673</v>
       </c>
       <c r="L120">
-        <f t="shared" si="12"/>
-        <v>1.6980837967479498</v>
+        <f t="shared" si="16"/>
+        <v>0.52035621172342961</v>
       </c>
       <c r="M120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
     </row>
@@ -4165,27 +4164,27 @@
         <v>15</v>
       </c>
       <c r="G121">
-        <f t="shared" si="16"/>
-        <v>5.199010977109126E-2</v>
+        <f t="shared" si="18"/>
+        <v>4.6150156682811484E-3</v>
       </c>
       <c r="H121">
         <f t="shared" si="14"/>
-        <v>0.22801339822714642</v>
+        <v>6.7933906617249296E-2</v>
       </c>
       <c r="I121">
-        <f t="shared" si="11"/>
-        <v>6.2549614354639564E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.3010620409498702E-2</v>
       </c>
       <c r="J121">
         <f t="shared" si="15"/>
-        <v>7.9088314152369915E-2</v>
+        <v>0.25101916343080005</v>
       </c>
       <c r="L121">
-        <f t="shared" si="12"/>
-        <v>0.42594650216806851</v>
+        <f t="shared" si="16"/>
+        <v>0.78700971084236548</v>
       </c>
       <c r="M121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
     </row>
@@ -4194,27 +4193,27 @@
         <v>16</v>
       </c>
       <c r="G122">
-        <f t="shared" si="16"/>
-        <v>5.7641595354362918E-2</v>
+        <f t="shared" si="18"/>
+        <v>4.2102425098300804E-3</v>
       </c>
       <c r="H122">
         <f t="shared" si="14"/>
-        <v>0.24008664134924901</v>
+        <v>6.4886381543665078E-2</v>
       </c>
       <c r="I122">
-        <f t="shared" si="11"/>
-        <v>4.6450296166273344E-3</v>
+        <f t="shared" si="13"/>
+        <v>7.757056886728847E-2</v>
       </c>
       <c r="J122">
         <f t="shared" si="15"/>
-        <v>6.8154454121703109E-2</v>
+        <v>0.27851493472933991</v>
       </c>
       <c r="L122">
-        <f t="shared" si="12"/>
-        <v>0.3520288660368594</v>
+        <f>J122/(H122+J122)</f>
+        <v>0.81104795331628776</v>
       </c>
       <c r="M122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
     </row>
@@ -4223,28 +4222,28 @@
         <v>17</v>
       </c>
       <c r="G123">
-        <f t="shared" si="16"/>
-        <v>9.9650251147480415E-3</v>
+        <f t="shared" si="18"/>
+        <v>5.4555635129933028E-2</v>
       </c>
       <c r="H123">
         <f t="shared" si="14"/>
-        <v>9.9824972400437167E-2</v>
+        <v>0.23357147756079513</v>
       </c>
       <c r="I123">
-        <f t="shared" si="11"/>
-        <v>6.5860841249589602E-2</v>
+        <f t="shared" si="13"/>
+        <v>1.8831023702717255E-2</v>
       </c>
       <c r="J123">
         <f t="shared" si="15"/>
-        <v>0.25663367130910475</v>
+        <v>0.13722617717737842</v>
       </c>
       <c r="L123">
-        <f t="shared" si="12"/>
-        <v>2.8274700576157925</v>
+        <f t="shared" si="16"/>
+        <v>0.37008372470499074</v>
       </c>
       <c r="M123">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="6:13" x14ac:dyDescent="0.3">
@@ -4252,27 +4251,27 @@
         <v>18</v>
       </c>
       <c r="G124">
-        <f t="shared" si="16"/>
-        <v>5.8045281564365198E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.3748342189183005E-2</v>
       </c>
       <c r="H124">
         <f t="shared" si="14"/>
-        <v>7.6187454061915724E-2</v>
+        <v>0.20916104367014191</v>
       </c>
       <c r="I124">
-        <f t="shared" si="11"/>
-        <v>6.4941689458654417E-2</v>
+        <f t="shared" si="13"/>
+        <v>4.9807965402074361E-3</v>
       </c>
       <c r="J124">
         <f t="shared" si="15"/>
-        <v>0.25483659364120848</v>
+        <v>7.0574758520362199E-2</v>
       </c>
       <c r="L124">
-        <f t="shared" si="12"/>
-        <v>3.5996995606345514</v>
+        <f t="shared" si="16"/>
+        <v>0.25229076138169748</v>
       </c>
       <c r="M124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
     </row>
